--- a/data_exploration/acl/tables/basic_stats_pos_xlm-roberta.xlsx
+++ b/data_exploration/acl/tables/basic_stats_pos_xlm-roberta.xlsx
@@ -555,7 +555,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>153035</v>
+        <v>38102</v>
       </c>
       <c r="C2">
         <v>18434</v>
@@ -564,7 +564,7 @@
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>28.50845884928284</v>
+        <v>28.64248595874232</v>
       </c>
       <c r="F2">
         <v>27.69333839644136</v>
@@ -573,10 +573,10 @@
         <v>32.073</v>
       </c>
       <c r="H2">
-        <v>3730</v>
+        <v>3321</v>
       </c>
       <c r="I2">
-        <v>0.08549571008656841</v>
+        <v>0.3043059149519488</v>
       </c>
       <c r="J2">
         <v>3591</v>
@@ -1197,7 +1197,7 @@
         <v>2066</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>2287</v>
       </c>
       <c r="E14">
         <v>27.28348544111256</v>
@@ -1206,7 +1206,7 @@
         <v>26.62778315585673</v>
       </c>
       <c r="G14">
-        <v>32.058</v>
+        <v>26.94665500655881</v>
       </c>
       <c r="H14">
         <v>1454</v>
@@ -1221,10 +1221,10 @@
         <v>1.476014760147601</v>
       </c>
       <c r="L14">
-        <v>1171</v>
+        <v>921</v>
       </c>
       <c r="M14">
-        <v>3.65275438268139</v>
+        <v>1.494474824346471</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>988</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="E16">
         <v>18.59661572052402</v>
@@ -1324,7 +1324,7 @@
         <v>18.30668016194332</v>
       </c>
       <c r="G16">
-        <v>29.029</v>
+        <v>18.31129196337742</v>
       </c>
       <c r="H16">
         <v>1841</v>
@@ -1339,10 +1339,10 @@
         <v>9.570409686515177</v>
       </c>
       <c r="L16">
-        <v>2515</v>
+        <v>1708</v>
       </c>
       <c r="M16">
-        <v>8.663750043060388</v>
+        <v>9.488888888888889</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>909</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="E17">
         <v>61.98864197530864</v>
@@ -1383,7 +1383,7 @@
         <v>55.41584158415841</v>
       </c>
       <c r="G17">
-        <v>32.232</v>
+        <v>69.98235294117647</v>
       </c>
       <c r="H17">
         <v>639</v>
@@ -1398,10 +1398,10 @@
         <v>2.493399241657237</v>
       </c>
       <c r="L17">
-        <v>1452</v>
+        <v>1252</v>
       </c>
       <c r="M17">
-        <v>4.504839910647804</v>
+        <v>2.630915356812642</v>
       </c>
       <c r="N17">
         <v>0</v>

--- a/data_exploration/acl/tables/basic_stats_pos_xlm-roberta.xlsx
+++ b/data_exploration/acl/tables/basic_stats_pos_xlm-roberta.xlsx
@@ -561,7 +561,7 @@
         <v>18434</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>18459</v>
       </c>
       <c r="E2">
         <v>28.64248595874232</v>
@@ -570,7 +570,7 @@
         <v>27.69333839644136</v>
       </c>
       <c r="G2">
-        <v>32.073</v>
+        <v>28.44086895281434</v>
       </c>
       <c r="H2">
         <v>3321</v>
@@ -585,10 +585,10 @@
         <v>0.7034293896755919</v>
       </c>
       <c r="L2">
-        <v>2983</v>
+        <v>3290</v>
       </c>
       <c r="M2">
-        <v>9.300657874224425</v>
+        <v>0.6266786034019696</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>1654</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>1721</v>
       </c>
       <c r="E3">
         <v>41.83544215309333</v>
@@ -629,7 +629,7 @@
         <v>42.7503022974607</v>
       </c>
       <c r="G3">
-        <v>31.578</v>
+        <v>41.47007553747821</v>
       </c>
       <c r="H3">
         <v>4127</v>
@@ -644,10 +644,10 @@
         <v>4.826825439477294</v>
       </c>
       <c r="L3">
-        <v>3018</v>
+        <v>3401</v>
       </c>
       <c r="M3">
-        <v>9.557286718601558</v>
+        <v>4.765307552192798</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>500</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E7">
         <v>51.65524143107331</v>
@@ -865,7 +865,7 @@
         <v>53.088</v>
       </c>
       <c r="G7">
-        <v>44.612</v>
+        <v>50.382</v>
       </c>
       <c r="H7">
         <v>2539</v>
@@ -880,10 +880,10 @@
         <v>6.257534659433393</v>
       </c>
       <c r="L7">
-        <v>1906</v>
+        <v>1600</v>
       </c>
       <c r="M7">
-        <v>4.272393078095579</v>
+        <v>6.351474733039578</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1014,40 +1014,40 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>656</v>
+        <v>4477</v>
       </c>
       <c r="C11">
-        <v>374</v>
+        <v>559</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>557</v>
       </c>
       <c r="E11">
-        <v>38.50457317073171</v>
+        <v>30.17176680813045</v>
       </c>
       <c r="F11">
-        <v>36.95454545454545</v>
+        <v>31.40787119856887</v>
       </c>
       <c r="G11">
-        <v>27.01</v>
+        <v>29.32495511669659</v>
       </c>
       <c r="H11">
-        <v>1762</v>
+        <v>5286</v>
       </c>
       <c r="I11">
-        <v>6.97573142246328</v>
+        <v>3.913265570517993</v>
       </c>
       <c r="J11">
-        <v>1524</v>
+        <v>2844</v>
       </c>
       <c r="K11">
-        <v>11.02669850227914</v>
+        <v>16.1986671982685</v>
       </c>
       <c r="L11">
-        <v>2673</v>
+        <v>2720</v>
       </c>
       <c r="M11">
-        <v>9.896334690855239</v>
+        <v>16.65238153544753</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>1364</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>1555</v>
       </c>
       <c r="E12">
         <v>26.07129409838749</v>
@@ -1088,7 +1088,7 @@
         <v>25.97507331378299</v>
       </c>
       <c r="G12">
-        <v>30.753</v>
+        <v>25.83665594855306</v>
       </c>
       <c r="H12">
         <v>3912</v>
@@ -1103,10 +1103,10 @@
         <v>7.042054755856619</v>
       </c>
       <c r="L12">
-        <v>2825</v>
+        <v>2375</v>
       </c>
       <c r="M12">
-        <v>9.186095665463533</v>
+        <v>5.911489446435684</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>501</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>543</v>
       </c>
       <c r="E15">
         <v>51.53550590579194</v>
@@ -1265,7 +1265,7 @@
         <v>52.25349301397205</v>
       </c>
       <c r="G15">
-        <v>59.686</v>
+        <v>51.58379373848987</v>
       </c>
       <c r="H15">
         <v>1677</v>
@@ -1280,10 +1280,10 @@
         <v>5.34397799763169</v>
       </c>
       <c r="L15">
-        <v>1444</v>
+        <v>1357</v>
       </c>
       <c r="M15">
-        <v>2.41932781556814</v>
+        <v>4.844698322027847</v>
       </c>
       <c r="N15">
         <v>0</v>

--- a/data_exploration/acl/tables/basic_stats_pos_xlm-roberta.xlsx
+++ b/data_exploration/acl/tables/basic_stats_pos_xlm-roberta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>language</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>test_avg_tokens</t>
+  </si>
+  <si>
+    <t>train_longest</t>
+  </si>
+  <si>
+    <t>dev_longest</t>
+  </si>
+  <si>
+    <t>test_longest</t>
+  </si>
+  <si>
+    <t>train_shortest</t>
+  </si>
+  <si>
+    <t>dev_shortest</t>
+  </si>
+  <si>
+    <t>test_shortest</t>
   </si>
   <si>
     <t>train_hapaxes</t>
@@ -485,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,10 +567,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>38102</v>
@@ -573,45 +609,63 @@
         <v>28.44086895281434</v>
       </c>
       <c r="H2">
+        <v>133</v>
+      </c>
+      <c r="I2">
+        <v>140</v>
+      </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>3321</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>0.3043059149519488</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>3591</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>0.7034293896755919</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>3290</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <v>0.6266786034019696</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>14305</v>
@@ -632,45 +686,63 @@
         <v>41.47007553747821</v>
       </c>
       <c r="H3">
+        <v>192</v>
+      </c>
+      <c r="I3">
+        <v>167</v>
+      </c>
+      <c r="J3">
+        <v>202</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>4127</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0.6896079243921024</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>3413</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>4.826825439477294</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>3401</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <v>4.765307552192798</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>8483</v>
@@ -691,45 +763,63 @@
         <v>22.22337417530631</v>
       </c>
       <c r="H4">
+        <v>81</v>
+      </c>
+      <c r="I4">
+        <v>91</v>
+      </c>
+      <c r="J4">
+        <v>89</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
         <v>2987</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>2.117898976147934</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>2588</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>11.38633463856747</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <v>2447</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <v>10.37787862080665</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>15696</v>
@@ -750,45 +840,63 @@
         <v>22.07426508509541</v>
       </c>
       <c r="H5">
+        <v>148</v>
+      </c>
+      <c r="I5">
+        <v>122</v>
+      </c>
+      <c r="J5">
+        <v>97</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>3542</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1.025578661477968</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>2474</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>4.774218448475493</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>2329</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>5.441334517078642</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1662</v>
@@ -809,45 +917,63 @@
         <v>40.12061403508772</v>
       </c>
       <c r="H6">
+        <v>173</v>
+      </c>
+      <c r="I6">
+        <v>133</v>
+      </c>
+      <c r="J6">
+        <v>165</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
         <v>950</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.314333148865523</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>1085</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>5.950748642571162</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>1132</v>
       </c>
-      <c r="M6">
+      <c r="S6">
         <v>6.187482918830281</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>3997</v>
@@ -868,45 +994,63 @@
         <v>50.382</v>
       </c>
       <c r="H7">
+        <v>216</v>
+      </c>
+      <c r="I7">
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <v>198</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
         <v>2539</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1.229742427324596</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>1661</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>6.257534659433393</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>1600</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>6.351474733039578</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1400</v>
@@ -927,45 +1071,63 @@
         <v>21.0975</v>
       </c>
       <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
         <v>548</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>1.880834706205382</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>559</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>3.467096694163617</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>592</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>3.507524588221353</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1000</v>
@@ -973,22 +1135,28 @@
       <c r="G9">
         <v>38.899</v>
       </c>
-      <c r="L9">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="R9">
         <v>653</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>1.678706393480552</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>1004</v>
@@ -996,22 +1164,28 @@
       <c r="G10">
         <v>27.7808764940239</v>
       </c>
-      <c r="L10">
+      <c r="J10">
+        <v>153</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="R10">
         <v>578</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>2.072278789617095</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>4477</v>
@@ -1032,45 +1206,63 @@
         <v>29.32495511669659</v>
       </c>
       <c r="H11">
+        <v>272</v>
+      </c>
+      <c r="I11">
+        <v>203</v>
+      </c>
+      <c r="J11">
+        <v>237</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
         <v>5286</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>3.913265570517993</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>2844</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>16.1986671982685</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>2720</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>16.65238153544753</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>12217</v>
@@ -1091,45 +1283,63 @@
         <v>25.83665594855306</v>
       </c>
       <c r="H12">
+        <v>469</v>
+      </c>
+      <c r="I12">
+        <v>363</v>
+      </c>
+      <c r="J12">
+        <v>137</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>3912</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>1.228207325917624</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>2495</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>7.042054755856619</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>2375</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>5.911489446435684</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>5396</v>
@@ -1150,45 +1360,63 @@
         <v>24.25458588104502</v>
       </c>
       <c r="H13">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>78</v>
+      </c>
+      <c r="J13">
+        <v>72</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
         <v>2912</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>2.238329861564832</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>2232</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>5.186837702175126</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>2270</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>5.202365128111106</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>23010</v>
@@ -1209,45 +1437,63 @@
         <v>26.94665500655881</v>
       </c>
       <c r="H14">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>76</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
         <v>1454</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>0.2316050035600907</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>812</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>1.476014760147601</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>921</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>1.494474824346471</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>7027</v>
@@ -1268,45 +1514,63 @@
         <v>51.58379373848987</v>
       </c>
       <c r="H15">
+        <v>257</v>
+      </c>
+      <c r="I15">
+        <v>211</v>
+      </c>
+      <c r="J15">
+        <v>306</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
         <v>1677</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>0.4630805765725963</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>1399</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>5.34397799763169</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>1357</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>4.844698322027847</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>3664</v>
@@ -1327,45 +1591,63 @@
         <v>18.31129196337742</v>
       </c>
       <c r="H16">
+        <v>110</v>
+      </c>
+      <c r="I16">
+        <v>102</v>
+      </c>
+      <c r="J16">
+        <v>82</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>1841</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>2.701869734949661</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>1731</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>9.570409686515177</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>1708</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>9.488888888888889</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>6075</v>
@@ -1386,45 +1668,63 @@
         <v>69.98235294117647</v>
       </c>
       <c r="H17">
+        <v>723</v>
+      </c>
+      <c r="I17">
+        <v>178</v>
+      </c>
+      <c r="J17">
+        <v>462</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
         <v>639</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>0.1696846096855657</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>1256</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>2.493399241657237</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>1252</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>2.630915356812642</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>5241</v>
@@ -1445,45 +1745,63 @@
         <v>52.80448065173116</v>
       </c>
       <c r="H18">
+        <v>252</v>
+      </c>
+      <c r="I18">
+        <v>202</v>
+      </c>
+      <c r="J18">
+        <v>206</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
         <v>333</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>0.1158881627028043</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>921</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>3.87773146393836</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>875</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>3.37486018436379</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>997</v>
@@ -1504,45 +1822,63 @@
         <v>26.56643356643357</v>
       </c>
       <c r="H19">
+        <v>152</v>
+      </c>
+      <c r="I19">
+        <v>107</v>
+      </c>
+      <c r="J19">
+        <v>113</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
         <v>926</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>3.452776017002871</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>526</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>13.53228711088243</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <v>514</v>
       </c>
-      <c r="M19">
+      <c r="S19">
         <v>13.52987628323243</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>1123</v>
@@ -1563,39 +1899,57 @@
         <v>49.49034749034749</v>
       </c>
       <c r="H20">
+        <v>227</v>
+      </c>
+      <c r="I20">
+        <v>162</v>
+      </c>
+      <c r="J20">
+        <v>158</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
         <v>1473</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>2.810800496135865</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>982</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <v>4.228020322052871</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <v>964</v>
       </c>
-      <c r="M20">
+      <c r="S20">
         <v>3.760337026057107</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>0</v>
       </c>
     </row>
